--- a/LaptopManagement/bin/Data/LaptopList.xlsx
+++ b/LaptopManagement/bin/Data/LaptopList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\VNU-HCMUS\dotnet\WinForms\LaptopManagement\bin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BAEEFE-BC4D-4F3D-88BF-4531ED8B057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B54D6B-9CEE-4E11-AF2E-E4D0254BDB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{B0D7F3C5-ED62-4BF5-8BE6-9B9BF01A306B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>LaptopID</t>
   </si>
@@ -83,73 +83,19 @@
     <t>Acer.png</t>
   </si>
   <si>
-    <t>DellXPS</t>
-  </si>
-  <si>
-    <t>Dell XPS 13</t>
-  </si>
-  <si>
-    <t>Ultrabook</t>
-  </si>
-  <si>
-    <t>22/04/2022</t>
-  </si>
-  <si>
-    <t>Intel Core i7-1165G7</t>
-  </si>
-  <si>
-    <t>DellXPS.png</t>
-  </si>
-  <si>
-    <t>HPPav</t>
-  </si>
-  <si>
-    <t>HP Pavilion</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 4500U</t>
-  </si>
-  <si>
-    <t>HPPav.png</t>
-  </si>
-  <si>
-    <t>LenovoX1</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad X1</t>
-  </si>
-  <si>
-    <t>Intel Core i9-10900K</t>
-  </si>
-  <si>
-    <t>LenovoX1.png</t>
-  </si>
-  <si>
-    <t>ASUSROG</t>
-  </si>
-  <si>
-    <t>ASUS ROG Strix</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>18/05/2022</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5900X</t>
-  </si>
-  <si>
-    <t>ASUSROG.png</t>
-  </si>
-  <si>
-    <t>12/10/2022</t>
-  </si>
-  <si>
-    <t>04/04/2020</t>
+    <t>512</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -501,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C4C6DB-B530-4EBF-ACD3-C1556BEABDBF}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,14 +505,14 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>512</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>799</v>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -574,13 +520,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -588,104 +534,17 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
-        <v>1024</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>1499</v>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>256</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>899</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>1024</v>
-      </c>
-      <c r="G5">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>2299</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>1024</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>2799</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
